--- a/ig/ch-term/ValueSet-DocumentEntry.eventCodeList.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.eventCodeList.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from DICOM" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>OID:2.16.756.5.30.1.127.3.10.1.8 (use: official)</t>
+    <t>OID:2.16.756.5.30.1.127.3.10.1.8 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-DocumentEntry.eventCodeList.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.eventCodeList.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-DocumentEntry.eventCodeList.xlsx
+++ b/ig/ch-term/ValueSet-DocumentEntry.eventCodeList.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-01T16:04:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,6 +111,84 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Thermography</t>
+  </si>
+  <si>
+    <t>RTIMAGE</t>
+  </si>
+  <si>
+    <t>RT Image</t>
+  </si>
+  <si>
+    <t>RESP</t>
+  </si>
+  <si>
+    <t>Respiratory Waveform</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Position Sensor</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Photoacoustic</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Laser Scan</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>Electrooculography</t>
+  </si>
+  <si>
+    <t>EMG</t>
+  </si>
+  <si>
+    <t>Electromyography</t>
+  </si>
+  <si>
+    <t>EEG</t>
+  </si>
+  <si>
+    <t>Electroencephalography</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Dermoscopy</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>Diaphanography</t>
+  </si>
+  <si>
+    <t>CFM</t>
+  </si>
+  <si>
+    <t>Confocal Microscopy</t>
+  </si>
+  <si>
+    <t>BDUS</t>
+  </si>
+  <si>
+    <t>Ultrasound Bone Densitometry</t>
+  </si>
+  <si>
     <t>OPTENF</t>
   </si>
   <si>
@@ -301,12 +379,6 @@
   </si>
   <si>
     <t>Optical Coherence Tomography</t>
-  </si>
-  <si>
-    <t>BDUS</t>
-  </si>
-  <si>
-    <t>Ultrasound Bone Densitometry</t>
   </si>
   <si>
     <t>PT</t>
@@ -636,7 +708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -971,15 +1043,119 @@
         <v>110</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
